--- a/샘플데이터/BROCOLLI RECIPE_SEQUENCE SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI RECIPE_SEQUENCE SAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hooyu\Documents\카카오톡 받은 파일\sql모음\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Team_broccoli\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>MYRECIPE_NO</t>
   </si>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>RECIPE_ATTACH_IMG</t>
-  </si>
-  <si>
-    <t>SEQ_MREC.NEXTVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대파는 4CM길이로 썰고, 양파는 반으로 자른뒤 뜨겁게 달군다.</t>
@@ -516,7 +512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -546,749 +544,749 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
+      <c r="A12" s="1">
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
+      <c r="A13" s="1">
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
+      <c r="A23" s="1">
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
+      <c r="A24" s="1">
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
+      <c r="A25" s="1">
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
+      <c r="A26" s="1">
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
+      <c r="A27" s="1">
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
+      <c r="A28" s="1">
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
+      <c r="A29" s="1">
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>5</v>
+      <c r="A30" s="1">
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
+      <c r="A31" s="1">
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
+      <c r="A32" s="1">
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>5</v>
+      <c r="A33" s="1">
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
+      <c r="A34" s="1">
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
+      <c r="A35" s="1">
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
+      <c r="A36" s="1">
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
+      <c r="A37" s="1">
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>5</v>
+      <c r="A38" s="1">
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>5</v>
+      <c r="A39" s="1">
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>5</v>
+      <c r="A40" s="1">
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
+      <c r="A41" s="1">
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>5</v>
+      <c r="A42" s="1">
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>5</v>
+      <c r="A43" s="1">
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">

--- a/샘플데이터/BROCOLLI RECIPE_SEQUENCE SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI RECIPE_SEQUENCE SAMPLE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="13">
   <si>
     <t>MYRECIPE_NO</t>
   </si>
@@ -67,117 +67,6 @@
   </si>
   <si>
     <t>resources/recipe_uploadfiles/rc202010205.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010206.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010207.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010208.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010209.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010210.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010211.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010212.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010213.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010214.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010215.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010216.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010217.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010218.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010219.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010220.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010221.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010222.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010223.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010224.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010225.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010226.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010227.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010228.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010229.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010230.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010231.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010232.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010233.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010234.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010235.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010236.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010237.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010238.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010239.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010240.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010241.jpg</t>
-  </si>
-  <si>
-    <t>resources/recipe_uploadfiles/rc202010242.jpg</t>
   </si>
 </sst>
 </file>
@@ -513,7 +402,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A43"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -642,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -659,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -677,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -695,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -713,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -731,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -749,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -767,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -785,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -803,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -821,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -839,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -857,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -875,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -893,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -911,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -929,7 +818,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -947,7 +836,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1"/>
     </row>
@@ -965,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -983,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -1001,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1"/>
     </row>
@@ -1019,7 +908,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J28" s="1"/>
     </row>
@@ -1037,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -1055,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J30" s="1"/>
     </row>
@@ -1073,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -1091,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="J32" s="1"/>
     </row>
@@ -1109,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -1127,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J34" s="1"/>
     </row>
@@ -1145,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J35" s="1"/>
     </row>
@@ -1163,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="J36" s="1"/>
     </row>
@@ -1181,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="J37" s="1"/>
     </row>
@@ -1199,7 +1088,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -1217,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="J39" s="1"/>
     </row>
@@ -1235,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1252,7 +1141,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -1269,7 +1158,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -1286,20 +1175,23 @@
         <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
